--- a/datos/mca_e_MCA_e.xlsx
+++ b/datos/mca_e_MCA_e.xlsx
@@ -16,17 +16,17 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Minimo (kcal)</t>
+    <t>Minimo (cal)</t>
   </si>
   <si>
-    <t>Maximo (kcal)</t>
+    <t>Maximo (cal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -42,23 +42,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,7 +57,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -79,9 +69,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -316,155 +303,142 @@
         <v>6.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1820.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C5" si="1">B2+200</f>
-        <v>2020</v>
+        <v>1274.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>7.0</v>
       </c>
-      <c r="B3" s="4">
-        <v>1900.0</v>
+      <c r="B3" s="2">
+        <v>1000.0</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>8.0</v>
       </c>
-      <c r="B4" s="4">
-        <v>1900.0</v>
+      <c r="B4" s="2">
+        <v>1000.0</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>9.0</v>
       </c>
-      <c r="B5" s="4">
-        <v>1900.0</v>
+      <c r="B5" s="2">
+        <v>1000.0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>10.0</v>
       </c>
-      <c r="B6" s="4">
-        <v>2120.0</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" ref="C6:C14" si="2">B6+400</f>
-        <v>2520</v>
+      <c r="B6" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1484.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>11.0</v>
       </c>
-      <c r="B7" s="4">
-        <v>2120.0</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="2"/>
-        <v>2520</v>
+      <c r="B7" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1484.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>12.0</v>
       </c>
-      <c r="B8" s="4">
-        <v>2250.0</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="2"/>
-        <v>2650</v>
+      <c r="B8" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1575.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>13.0</v>
       </c>
-      <c r="B9" s="4">
-        <v>2250.0</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="2"/>
-        <v>2650</v>
+      <c r="B9" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1575.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>14.0</v>
       </c>
-      <c r="B10" s="4">
-        <v>2650.0</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="2"/>
-        <v>3050</v>
+      <c r="B10" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1854.9999999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>15.0</v>
       </c>
-      <c r="B11" s="4">
-        <v>2650.0</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="2"/>
-        <v>3050</v>
+      <c r="B11" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1854.9999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>16.0</v>
       </c>
-      <c r="B12" s="4">
-        <v>2770.0</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="2"/>
-        <v>3170</v>
+      <c r="B12" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1938.9999999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>17.0</v>
       </c>
-      <c r="B13" s="4">
-        <v>2770.0</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="2"/>
-        <v>3170</v>
+      <c r="B13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1938.9999999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>18.0</v>
       </c>
-      <c r="B14" s="4">
-        <v>2770.0</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="2"/>
-        <v>3170</v>
+      <c r="B14" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1938.9999999999998</v>
       </c>
     </row>
   </sheetData>
